--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>images</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Подписчиков</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0ba5ce53-a4fc-4409-8d68-5a86341d8a05.jpeg</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>0c67431d-ea5a-46cf-be39-0393422ffbcb.jpg</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0bde4709-6228-49de-97b4-f1d7b3034bf8.png</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0ab5222c-0f02-4144-ab86-8db841fac442.png</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0b18a8e2-b3b7-4710-9cdb-6878b4426f56.JPG</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>0b6be368-ceb4-4702-9509-8ba6d51ab3cf.png</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>0aba638c-ad12-4279-9f24-7f0611009fa9.PNG</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/temp_data.xlsx
+++ b/temp_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,50 +468,80 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0bde4709-6228-49de-97b4-f1d7b3034bf8.png</t>
+          <t>5b2bb077-4055-4253-9fb7-b7d5c092f0b5.jpg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1637</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0ab5222c-0f02-4144-ab86-8db841fac442.png</t>
+          <t>5caff51d-e3e6-4aca-9aea-9bfeff8c4d83.jpg</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0b18a8e2-b3b7-4710-9cdb-6878b4426f56.JPG</t>
+          <t>5f7c6016-1895-432e-aaa3-4ae3a81a1b8a.jpg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0b6be368-ceb4-4702-9509-8ba6d51ab3cf.png</t>
+          <t>0bde4709-6228-49de-97b4-f1d7b3034bf8.png</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>121</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>0ab5222c-0f02-4144-ab86-8db841fac442.png</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>0b18a8e2-b3b7-4710-9cdb-6878b4426f56.JPG</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>0b6be368-ceb4-4702-9509-8ba6d51ab3cf.png</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>0aba638c-ad12-4279-9f24-7f0611009fa9.PNG</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B11" t="n">
         <v>194</v>
       </c>
     </row>
